--- a/nuclear and radiation physics/7. compton scattering/data.xlsx
+++ b/nuclear and radiation physics/7. compton scattering/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\all notes\labs\nuclear and radiation physics\7. compton scattering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938828E9-676E-4C96-A546-67811C2C85D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3706C9AA-A039-4C1F-A60D-9AD3CB2F576B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{01EA9E5C-69ED-4F86-AACC-A57B7B7E9B25}"/>
   </bookViews>
@@ -133,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -143,13 +143,10 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,13 +464,13 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="8"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -533,14 +530,14 @@
         <v>665</v>
       </c>
       <c r="C2">
-        <f>(662/(1+$S$3*(1-J2)))</f>
+        <f t="shared" ref="C2:C7" si="0">(662/(1+$S$3*(1-J2)))</f>
         <v>662</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="2">
         <f>-B2+$B$2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="2">
         <f>$C$2-C2</f>
         <v>0</v>
       </c>
@@ -563,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="6">
-        <f t="shared" ref="K2:K7" si="0">((1+J2^2)/2)</f>
+        <f t="shared" ref="K2:K7" si="1">((1+J2^2)/2)</f>
         <v>1</v>
       </c>
       <c r="L2" s="6">
@@ -575,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="3">
-        <f>$S$2^2*K2*L2*(M2+1)*1E+30</f>
+        <f t="shared" ref="N2:N7" si="2">$S$2^2*K2*L2*(M2+1)*1E+30</f>
         <v>7.9411240000000012</v>
       </c>
       <c r="O2">
@@ -597,19 +594,19 @@
         <v>542.4</v>
       </c>
       <c r="C3">
-        <f>(662/(1+$S$3*(1-J3)))</f>
+        <f t="shared" si="0"/>
         <v>564.09366981174526</v>
       </c>
-      <c r="D3" s="10">
-        <f t="shared" ref="D3:D7" si="1">-B3+$B$2</f>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D7" si="3">-B3+$B$2</f>
         <v>122.60000000000002</v>
       </c>
-      <c r="E3" s="11">
-        <f t="shared" ref="E3:E7" si="2">$C$2-C3</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E7" si="4">$C$2-C3</f>
         <v>97.906330188254742</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F7" si="3">1.24/(B3*0.001)</f>
+        <f t="shared" ref="F3:F7" si="5">1.24/(B3*0.001)</f>
         <v>2.2861356932153392</v>
       </c>
       <c r="G3" s="3">
@@ -617,18 +614,18 @@
         <v>0.42147403908000092</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H7" si="4">2.426*(1-COS(RADIANS(A3)))</f>
+        <f t="shared" ref="H3:H7" si="6">2.426*(1-COS(RADIANS(A3)))</f>
         <v>0.32502237041895171</v>
       </c>
       <c r="I3">
         <v>867</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J7" si="5">COS(RADIANS(A3))</f>
+        <f t="shared" ref="J3:J7" si="7">COS(RADIANS(A3))</f>
         <v>0.86602540378443871</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
       <c r="L3" s="6">
@@ -640,11 +637,11 @@
         <v>1.4668114122358231E-2</v>
       </c>
       <c r="N3" s="3">
-        <f>$S$2^2*K3*L3*(M3+1)*1E+30</f>
+        <f t="shared" si="2"/>
         <v>6.8901860420041325</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O7" si="6">I3/N3</f>
+        <f t="shared" ref="O3:O7" si="8">I3/N3</f>
         <v>125.83114515552583</v>
       </c>
       <c r="R3" t="s">
@@ -663,19 +660,19 @@
         <v>467.9</v>
       </c>
       <c r="C4">
-        <f>(662/(1+$S$3*(1-J4)))</f>
+        <f t="shared" si="0"/>
         <v>479.90388755731612</v>
       </c>
-      <c r="D4" s="10">
-        <f t="shared" si="1"/>
+      <c r="D4" s="2">
+        <f t="shared" si="3"/>
         <v>197.10000000000002</v>
       </c>
-      <c r="E4" s="11">
-        <f t="shared" si="2"/>
+      <c r="E4" s="2">
+        <f t="shared" si="4"/>
         <v>182.09611244268388</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.6501389185723445</v>
       </c>
       <c r="G4" s="3">
@@ -690,33 +687,33 @@
         <v>721</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.70710678118654757</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" ref="L4:L7" si="7">1/(1+$S$3*(1-J4)^2)</f>
+        <f t="shared" ref="L4:L7" si="9">1/(1+$S$3*(1-J4)^2)</f>
         <v>0.8999796411957719</v>
       </c>
       <c r="M4" s="6">
-        <f t="shared" ref="M4:M7" si="8">($S$3*(1-J4))^2/((1+J4^2)*(1+$S$3*(1-J4)))</f>
+        <f t="shared" ref="M4:M7" si="10">($S$3*(1-J4))^2/((1+J4^2)*(1+$S$3*(1-J4)))</f>
         <v>6.9582148084480183E-2</v>
       </c>
       <c r="N4" s="3">
-        <f>$S$2^2*K4*L4*(M4+1)*1E+30</f>
+        <f t="shared" si="2"/>
         <v>5.7331073236901089</v>
       </c>
       <c r="O4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>125.76077147914424</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="8">
         <f>SUM(O2:O7)/120</f>
         <v>21.119125139769572</v>
       </c>
@@ -732,19 +729,19 @@
         <v>391</v>
       </c>
       <c r="C5">
-        <f>(662/(1+$S$3*(1-J5)))</f>
+        <f t="shared" si="0"/>
         <v>401.76009501187656</v>
       </c>
-      <c r="D5" s="10">
-        <f t="shared" si="1"/>
+      <c r="D5" s="2">
+        <f t="shared" si="3"/>
         <v>274</v>
       </c>
-      <c r="E5" s="11">
-        <f t="shared" si="2"/>
+      <c r="E5" s="2">
+        <f t="shared" si="4"/>
         <v>260.23990498812344</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.1713554987212276</v>
       </c>
       <c r="G5" s="3">
@@ -752,34 +749,34 @@
         <v>1.3066938445858893</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2129999999999999</v>
       </c>
       <c r="I5">
         <v>464</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.75535846267553586</v>
       </c>
       <c r="M5" s="6">
+        <f t="shared" si="10"/>
+        <v>0.20371029744667202</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5127063064519239</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="8"/>
-        <v>0.20371029744667202</v>
-      </c>
-      <c r="N5" s="3">
-        <f>$S$2^2*K5*L5*(M5+1)*1E+30</f>
-        <v>4.5127063064519239</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="6"/>
         <v>102.82078391332672</v>
       </c>
     </row>
@@ -791,19 +788,19 @@
         <v>278.10000000000002</v>
       </c>
       <c r="C6">
-        <f>(662/(1+$S$3*(1-J6)))</f>
+        <f t="shared" si="0"/>
         <v>288.3904518329071</v>
       </c>
-      <c r="D6" s="10">
-        <f t="shared" si="1"/>
+      <c r="D6" s="2">
+        <f t="shared" si="3"/>
         <v>386.9</v>
       </c>
-      <c r="E6" s="11">
-        <f t="shared" si="2"/>
+      <c r="E6" s="2">
+        <f t="shared" si="4"/>
         <v>373.6095481670929</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.4588277597986332</v>
       </c>
       <c r="G6" s="3">
@@ -811,34 +808,34 @@
         <v>2.594166105663295</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4259999999999997</v>
       </c>
       <c r="I6">
         <v>391</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.43563512361466333</v>
       </c>
       <c r="M6" s="6">
+        <f t="shared" si="10"/>
+        <v>0.73113414514108199</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9943708924036061</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="8"/>
-        <v>0.73113414514108199</v>
-      </c>
-      <c r="N6" s="3">
-        <f>$S$2^2*K6*L6*(M6+1)*1E+30</f>
-        <v>2.9943708924036061</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="6"/>
         <v>130.57834652077489</v>
       </c>
     </row>
@@ -850,19 +847,19 @@
         <v>210.4</v>
       </c>
       <c r="C7">
-        <f>(662/(1+$S$3*(1-J7)))</f>
+        <f t="shared" si="0"/>
         <v>224.9215425531915</v>
       </c>
-      <c r="D7" s="10">
-        <f t="shared" si="1"/>
+      <c r="D7" s="2">
+        <f t="shared" si="3"/>
         <v>454.6</v>
       </c>
-      <c r="E7" s="11">
-        <f t="shared" si="2"/>
+      <c r="E7" s="2">
+        <f t="shared" si="4"/>
         <v>437.0784574468085</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.8935361216730033</v>
       </c>
       <c r="G7" s="3">
@@ -870,34 +867,34 @@
         <v>4.0288744675376655</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6389999999999998</v>
       </c>
       <c r="I7">
         <v>283</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.49999999999999978</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.62499999999999989</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.25543614096475886</v>
       </c>
       <c r="M7" s="6">
+        <f t="shared" si="10"/>
+        <v>1.0264073364700004</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5690413140391763</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="8"/>
-        <v>1.0264073364700004</v>
-      </c>
-      <c r="N7" s="3">
-        <f>$S$2^2*K7*L7*(M7+1)*1E+30</f>
-        <v>2.5690413140391763</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="6"/>
         <v>110.15782364163429</v>
       </c>
     </row>
@@ -916,7 +913,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="8.88671875" style="8"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -976,14 +973,14 @@
         <v>666.6</v>
       </c>
       <c r="C2">
-        <f>(662/(1+$S$3*(1-J2)))</f>
+        <f t="shared" ref="C2:C7" si="0">(662/(1+$S$3*(1-J2)))</f>
         <v>662</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="2">
         <f>-B2+$B$2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="2">
         <f>$C$2-C2</f>
         <v>0</v>
       </c>
@@ -1006,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="6">
-        <f t="shared" ref="K2:K7" si="0">((1+J2^2)/2)</f>
+        <f t="shared" ref="K2:K7" si="1">((1+J2^2)/2)</f>
         <v>1</v>
       </c>
       <c r="L2" s="6">
@@ -1018,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="3">
-        <f>$S$2^2*K2*L2*(M2+1)*1E+30</f>
+        <f t="shared" ref="N2:N7" si="2">$S$2^2*K2*L2*(M2+1)*1E+30</f>
         <v>7.9411240000000012</v>
       </c>
       <c r="O2">
@@ -1040,15 +1037,15 @@
         <v>551.4</v>
       </c>
       <c r="C3">
-        <f>(662/(1+$S$3*(1-J3)))</f>
+        <f t="shared" si="0"/>
         <v>564.09366981174526</v>
       </c>
-      <c r="D3" s="10">
-        <f t="shared" ref="D3:D7" si="1">-B3+$B$2</f>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D7" si="3">-B3+$B$2</f>
         <v>115.20000000000005</v>
       </c>
-      <c r="E3" s="11">
-        <f t="shared" ref="E3:E7" si="2">$C$2-C3</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E7" si="4">$C$2-C3</f>
         <v>97.906330188254742</v>
       </c>
       <c r="F3" s="1">
@@ -1060,18 +1057,18 @@
         <v>0.38863516384282648</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H7" si="3">2.426*(1-COS(RADIANS(A3)))</f>
+        <f t="shared" ref="H3:H7" si="5">2.426*(1-COS(RADIANS(A3)))</f>
         <v>0.32502237041895171</v>
       </c>
       <c r="I3">
         <v>1309</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J7" si="4">COS(RADIANS(A3))</f>
+        <f t="shared" ref="J3:J7" si="6">COS(RADIANS(A3))</f>
         <v>0.86602540378443871</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
       <c r="L3" s="6">
@@ -1083,11 +1080,11 @@
         <v>1.4668114122358231E-2</v>
       </c>
       <c r="N3" s="3">
-        <f>$S$2^2*K3*L3*(M3+1)*1E+30</f>
+        <f t="shared" si="2"/>
         <v>6.8901860420041325</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O7" si="5">I3/N3</f>
+        <f t="shared" ref="O3:O7" si="7">I3/N3</f>
         <v>189.98035641128411</v>
       </c>
       <c r="R3" t="s">
@@ -1106,19 +1103,19 @@
         <v>469.8</v>
       </c>
       <c r="C4">
-        <f>(662/(1+$S$3*(1-J4)))</f>
+        <f t="shared" si="0"/>
         <v>479.90388755731612</v>
       </c>
-      <c r="D4" s="10">
-        <f t="shared" si="1"/>
+      <c r="D4" s="2">
+        <f t="shared" si="3"/>
         <v>196.8</v>
       </c>
-      <c r="E4" s="11">
-        <f t="shared" si="2"/>
+      <c r="E4" s="2">
+        <f t="shared" si="4"/>
         <v>182.09611244268388</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F3:F7" si="6">1.24/(B4*0.001)</f>
+        <f t="shared" ref="F4:F7" si="8">1.24/(B4*0.001)</f>
         <v>2.6394210302256278</v>
       </c>
       <c r="G4" s="3">
@@ -1133,33 +1130,33 @@
         <v>1027</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.70710678118654757</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" ref="L4:L7" si="7">1/(1+$S$3*(1-J4)^2)</f>
+        <f t="shared" ref="L4:L7" si="9">1/(1+$S$3*(1-J4)^2)</f>
         <v>0.8999796411957719</v>
       </c>
       <c r="M4" s="6">
-        <f t="shared" ref="M4:M7" si="8">($S$3*(1-J4))^2/((1+J4^2)*(1+$S$3*(1-J4)))</f>
+        <f t="shared" ref="M4:M7" si="10">($S$3*(1-J4))^2/((1+J4^2)*(1+$S$3*(1-J4)))</f>
         <v>6.9582148084480183E-2</v>
       </c>
       <c r="N4" s="3">
-        <f>$S$2^2*K4*L4*(M4+1)*1E+30</f>
+        <f t="shared" si="2"/>
         <v>5.7331073236901089</v>
       </c>
       <c r="O4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>179.13496852854527</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="8">
         <f>SUM(O2:O7)/120</f>
         <v>15.726441096346594</v>
       </c>
@@ -1175,19 +1172,19 @@
         <v>399.1</v>
       </c>
       <c r="C5">
-        <f>(662/(1+$S$3*(1-J5)))</f>
+        <f t="shared" si="0"/>
         <v>401.76009501187656</v>
       </c>
-      <c r="D5" s="10">
-        <f t="shared" si="1"/>
+      <c r="D5" s="2">
+        <f t="shared" si="3"/>
         <v>267.5</v>
       </c>
-      <c r="E5" s="11">
-        <f t="shared" si="2"/>
+      <c r="E5" s="2">
+        <f t="shared" si="4"/>
         <v>260.23990498812344</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1069907291405663</v>
       </c>
       <c r="G5" s="3">
@@ -1195,34 +1192,34 @@
         <v>1.2468047105387063</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2129999999999999</v>
       </c>
       <c r="I5">
         <v>785</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
       <c r="L5" s="6">
+        <f t="shared" si="9"/>
+        <v>0.75535846267553586</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="10"/>
+        <v>0.20371029744667202</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5127063064519239</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="7"/>
-        <v>0.75535846267553586</v>
-      </c>
-      <c r="M5" s="6">
-        <f t="shared" si="8"/>
-        <v>0.20371029744667202</v>
-      </c>
-      <c r="N5" s="3">
-        <f>$S$2^2*K5*L5*(M5+1)*1E+30</f>
-        <v>4.5127063064519239</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="5"/>
         <v>173.953265887848</v>
       </c>
     </row>
@@ -1234,19 +1231,19 @@
         <v>280</v>
       </c>
       <c r="C6">
-        <f>(662/(1+$S$3*(1-J6)))</f>
+        <f t="shared" si="0"/>
         <v>288.3904518329071</v>
       </c>
-      <c r="D6" s="10">
-        <f t="shared" si="1"/>
+      <c r="D6" s="2">
+        <f t="shared" si="3"/>
         <v>386.6</v>
       </c>
-      <c r="E6" s="11">
-        <f t="shared" si="2"/>
+      <c r="E6" s="2">
+        <f t="shared" si="4"/>
         <v>373.6095481670929</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.4285714285714279</v>
       </c>
       <c r="G6" s="3">
@@ -1254,34 +1251,34 @@
         <v>2.5683854099695678</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4259999999999997</v>
       </c>
       <c r="I6">
         <v>492</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="L6" s="6">
+        <f t="shared" si="9"/>
+        <v>0.43563512361466333</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="10"/>
+        <v>0.73113414514108199</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9943708924036061</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="7"/>
-        <v>0.43563512361466333</v>
-      </c>
-      <c r="M6" s="6">
-        <f t="shared" si="8"/>
-        <v>0.73113414514108199</v>
-      </c>
-      <c r="N6" s="3">
-        <f>$S$2^2*K6*L6*(M6+1)*1E+30</f>
-        <v>2.9943708924036061</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="5"/>
         <v>164.30830303892901</v>
       </c>
     </row>
@@ -1293,19 +1290,19 @@
         <v>215.4</v>
       </c>
       <c r="C7">
-        <f>(662/(1+$S$3*(1-J7)))</f>
+        <f t="shared" si="0"/>
         <v>224.9215425531915</v>
       </c>
-      <c r="D7" s="10">
-        <f t="shared" si="1"/>
+      <c r="D7" s="2">
+        <f t="shared" si="3"/>
         <v>451.20000000000005</v>
       </c>
-      <c r="E7" s="11">
-        <f t="shared" si="2"/>
+      <c r="E7" s="2">
+        <f t="shared" si="4"/>
         <v>437.0784574468085</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.7567316620241407</v>
       </c>
       <c r="G7" s="3">
@@ -1313,34 +1310,34 @@
         <v>3.8965456434222805</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6389999999999998</v>
       </c>
       <c r="I7">
         <v>504</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.49999999999999978</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.62499999999999989</v>
       </c>
       <c r="L7" s="6">
+        <f t="shared" si="9"/>
+        <v>0.25543614096475886</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="10"/>
+        <v>1.0264073364700004</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5690413140391763</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="7"/>
-        <v>0.25543614096475886</v>
-      </c>
-      <c r="M7" s="6">
-        <f t="shared" si="8"/>
-        <v>1.0264073364700004</v>
-      </c>
-      <c r="N7" s="3">
-        <f>$S$2^2*K7*L7*(M7+1)*1E+30</f>
-        <v>2.5690413140391763</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="5"/>
         <v>196.18213114976567</v>
       </c>
     </row>
